--- a/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
+++ b/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3978D-CC14-4F18-8912-904C48C5C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF0EFE-4BBF-41DA-A7A0-056A8BFC626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Forecast</t>
   </si>
@@ -432,12 +432,25 @@
   <si>
     <t>Differences</t>
   </si>
+  <si>
+    <t>Projection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,14 +476,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1028,6 +1044,539 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Growing revenue gap</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario balance sheet'!$A$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario balance sheet'!$B$171:$N$171</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2023-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025-26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027-28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028-29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029-30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030-31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2031-32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032-33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2033-34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2034-35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2035-36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario balance sheet'!$B$174:$N$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>704.50263866873001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>717.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750.26199999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>783.55899999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815.42899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>862.84162329535923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>915.97350967414638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>971.93115521373818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1028.1036396359721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1088.9100599416968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1152.8851061323041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1220.1773971587795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1294.9361594378706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85C7-4BCF-804F-38F3935F322A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario balance sheet'!$A$175</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario balance sheet'!$B$171:$N$171</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2023-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025-26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027-28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028-29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029-30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030-31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2031-32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032-33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2033-34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2034-35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2035-36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario balance sheet'!$B$175:$N$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>704.50263866873001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>710.79494698487179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>735.5802685649146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>760.28157209263964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>783.59906717733509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>821.1291353855861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>863.08027123073202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>906.94159979671349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950.13201540930345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>996.75191389341603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1045.3448250665183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1095.9749123965091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1152.0114463283655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85C7-4BCF-804F-38F3935F322A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1213245808"/>
+        <c:axId val="1213248208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1213245808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213248208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1213248208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213245808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1068,7 +1617,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1627,6 +2732,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0B59F5-F2C6-3627-198C-009893D44697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2173,13 +3319,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC5A99E-2648-4E6C-BB1E-9B60D11F81C0}">
-  <dimension ref="A1:AO166"/>
+  <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
+      <selection pane="bottomRight" activeCell="AX20" sqref="AX20:AX31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2187,7 +3333,7 @@
     <col min="1" max="1" width="43.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +3413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +3526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +3606,7 @@
         <v>4340126.3433739264</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2540,17 +3686,17 @@
         <v>31092692.94408929</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2678,7 +3824,7 @@
         <v>-140839.17324167001</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2805,8 +3951,12 @@
         <f t="shared" ref="AO15" si="11">AA15-N15</f>
         <v>-122363.14425217686</v>
       </c>
+      <c r="AQ15" s="1">
+        <f>AO15/AO$13</f>
+        <v>0.86881470144822848</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2934,7 +4084,7 @@
         <v>-101823.14560360741</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3062,7 +4212,7 @@
         <v>-14924.884521518776</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3190,7 +4340,7 @@
         <v>-4649.5449869911972</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3318,7 +4468,12 @@
         <v>-965.56914005948056</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX20">
+        <v>0.57490873690878774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3445,8 +4600,15 @@
         <f t="shared" ref="AO21" si="34">AA21-N21</f>
         <v>-18476.028989493148</v>
       </c>
+      <c r="AQ21" s="1">
+        <f>AO21/AO$13</f>
+        <v>0.1311852985517715</v>
+      </c>
+      <c r="AX21">
+        <v>0.73366990898807627</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3573,8 +4735,11 @@
         <f t="shared" ref="AO22:AO27" si="46">AA22-N22</f>
         <v>-10781.48640096726</v>
       </c>
+      <c r="AX22">
+        <v>0.8480532084511605</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3701,8 +4866,11 @@
         <f t="shared" si="46"/>
         <v>-3430.5341717284609</v>
       </c>
+      <c r="AX23">
+        <v>1.0865841414735447</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3829,8 +4997,11 @@
         <f t="shared" si="46"/>
         <v>-960.84781302027659</v>
       </c>
+      <c r="AX24">
+        <v>1.1490698775062214</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3957,8 +5128,11 @@
         <f t="shared" si="46"/>
         <v>-1214.5745653412041</v>
       </c>
+      <c r="AX25">
+        <v>1.4404359078511386</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4085,8 +5259,11 @@
         <f t="shared" si="46"/>
         <v>-589.6106849799944</v>
       </c>
+      <c r="AX26">
+        <v>1.7122537465569225</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4213,8 +5390,16 @@
         <f t="shared" si="46"/>
         <v>-1498.9753534559568</v>
       </c>
+      <c r="AX27">
+        <v>1.8325776557379094</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX28">
+        <v>1.9579313782304111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4341,8 +5526,20 @@
         <f t="shared" ref="AO29" si="57">AA29-N29</f>
         <v>-2085.5398678351194</v>
       </c>
+      <c r="AQ29" s="1">
+        <f>AO29/AO$13</f>
+        <v>1.4807953070389594E-2</v>
+      </c>
+      <c r="AX29">
+        <v>2.0013377132128802</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX30">
+        <v>2.06760198650682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4426,51 +5623,58 @@
         <v>-61.739716570715245</v>
       </c>
       <c r="AE31">
-        <f t="shared" ref="AE31:AE37" si="58">Q31-D31</f>
+        <f t="shared" ref="AE31:AE36" si="58">Q31-D31</f>
         <v>-136.22717403780553</v>
       </c>
       <c r="AF31">
-        <f t="shared" ref="AF31:AF37" si="59">R31-E31</f>
+        <f t="shared" ref="AF31:AF36" si="59">R31-E31</f>
         <v>-211.18487888728123</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31:AG37" si="60">S31-F31</f>
+        <f t="shared" ref="AG31:AG36" si="60">S31-F31</f>
         <v>-277.31090650671467</v>
       </c>
       <c r="AH31">
-        <f t="shared" ref="AH31:AH37" si="61">T31-G31</f>
+        <f t="shared" ref="AH31:AH36" si="61">T31-G31</f>
         <v>-343.3448487987589</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI31:AI37" si="62">U31-H31</f>
+        <f t="shared" ref="AI31:AI36" si="62">U31-H31</f>
         <v>-432.36726801543773</v>
       </c>
       <c r="AJ31">
-        <f t="shared" ref="AJ31:AJ37" si="63">V31-I31</f>
+        <f t="shared" ref="AJ31:AJ36" si="63">V31-I31</f>
         <v>-528.82877597082552</v>
       </c>
       <c r="AK31">
-        <f t="shared" ref="AK31:AK37" si="64">W31-J31</f>
+        <f t="shared" ref="AK31:AK36" si="64">W31-J31</f>
         <v>-633.03160428406045</v>
       </c>
       <c r="AL31">
-        <f t="shared" ref="AL31:AL37" si="65">X31-K31</f>
+        <f t="shared" ref="AL31:AL36" si="65">X31-K31</f>
         <v>-745.58714313817109</v>
       </c>
       <c r="AM31">
-        <f t="shared" ref="AM31:AM37" si="66">Y31-L31</f>
+        <f t="shared" ref="AM31:AM36" si="66">Y31-L31</f>
         <v>-866.88753845745305</v>
       </c>
       <c r="AN31">
-        <f t="shared" ref="AN31:AN37" si="67">Z31-M31</f>
+        <f t="shared" ref="AN31:AN36" si="67">Z31-M31</f>
         <v>-997.44428190571125</v>
       </c>
       <c r="AO31">
-        <f t="shared" ref="AO31:AO37" si="68">AA31-N31</f>
+        <f t="shared" ref="AO31:AO36" si="68">AA31-N31</f>
         <v>-1137.5959060254681</v>
       </c>
+      <c r="AQ31" s="1">
+        <f>AO31/AO$13</f>
+        <v>8.0772691279111276E-3</v>
+      </c>
+      <c r="AX31">
+        <v>2.1094978551656367</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4550,7 +5754,7 @@
         <v>20095.000715478087</v>
       </c>
       <c r="AD32">
-        <f t="shared" ref="AD32:AD37" si="69">P32-C32</f>
+        <f t="shared" ref="AD32:AD36" si="69">P32-C32</f>
         <v>0</v>
       </c>
       <c r="AE32">
@@ -4598,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4726,7 +5930,7 @@
         <v>-1137.5959060254681</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4854,7 +6058,7 @@
         <v>-66.425890315671495</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4982,7 +6186,7 @@
         <v>-74.007239662636493</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -5110,7 +6314,7 @@
         <v>-807.51083183134688</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5237,13 +6441,17 @@
         <f t="shared" ref="AO38" si="80">AA38-N38</f>
         <v>-142924.71310950513</v>
       </c>
+      <c r="AQ38" s="1">
+        <f>AO38/AO$13</f>
+        <v>1.0148079530703895</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -5371,7 +6579,7 @@
         <v>-17249.70354102063</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5499,7 +6707,7 @@
         <v>-3840.8201517749767</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5627,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5755,7 +6963,7 @@
         <v>-78.143253577894939</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5883,7 +7091,7 @@
         <v>-2530.4384720382805</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -13054,51 +14262,51 @@
         <v>1211271.1673424502</v>
       </c>
       <c r="AD124">
-        <f>P124-C124</f>
+        <f t="shared" ref="AD124:AD130" si="340">P124-C124</f>
         <v>-1520.6423653857782</v>
       </c>
       <c r="AE124">
-        <f t="shared" ref="AE124:AE127" si="340">Q124-D124</f>
+        <f t="shared" ref="AE124:AE127" si="341">Q124-D124</f>
         <v>-3208.4754454250215</v>
       </c>
       <c r="AF124">
-        <f t="shared" ref="AF124:AF127" si="341">R124-E124</f>
+        <f t="shared" ref="AF124:AF127" si="342">R124-E124</f>
         <v>-5120.3864574969048</v>
       </c>
       <c r="AG124">
-        <f t="shared" ref="AG124:AG127" si="342">S124-F124</f>
+        <f t="shared" ref="AG124:AG127" si="343">S124-F124</f>
         <v>-5918.569247633568</v>
       </c>
       <c r="AH124">
-        <f t="shared" ref="AH124:AH127" si="343">T124-G124</f>
+        <f t="shared" ref="AH124:AH127" si="344">T124-G124</f>
         <v>-7400.8387828218983</v>
       </c>
       <c r="AI124">
-        <f t="shared" ref="AI124:AI127" si="344">U124-H124</f>
+        <f t="shared" ref="AI124:AI127" si="345">U124-H124</f>
         <v>-6982.1639632342849</v>
       </c>
       <c r="AJ124">
-        <f t="shared" ref="AJ124:AJ127" si="345">V124-I124</f>
+        <f t="shared" ref="AJ124:AJ127" si="346">V124-I124</f>
         <v>-7860.8729431418469</v>
       </c>
       <c r="AK124">
-        <f t="shared" ref="AK124:AK127" si="346">W124-J124</f>
+        <f t="shared" ref="AK124:AK127" si="347">W124-J124</f>
         <v>-8350.3341626652982</v>
       </c>
       <c r="AL124">
-        <f t="shared" ref="AL124:AL127" si="347">X124-K124</f>
+        <f t="shared" ref="AL124:AL127" si="348">X124-K124</f>
         <v>-8518.594877610798</v>
       </c>
       <c r="AM124">
-        <f t="shared" ref="AM124:AM127" si="348">Y124-L124</f>
+        <f t="shared" ref="AM124:AM127" si="349">Y124-L124</f>
         <v>-8352.4846907961182</v>
       </c>
       <c r="AN124">
-        <f t="shared" ref="AN124:AN127" si="349">Z124-M124</f>
+        <f t="shared" ref="AN124:AN127" si="350">Z124-M124</f>
         <v>-7670.4862027119379</v>
       </c>
       <c r="AO124">
-        <f t="shared" ref="AO124:AO127" si="350">AA124-N124</f>
+        <f t="shared" ref="AO124:AO127" si="351">AA124-N124</f>
         <v>-8005.9360682687256</v>
       </c>
     </row>
@@ -13182,51 +14390,51 @@
         <v>64653.354181825256</v>
       </c>
       <c r="AD125">
-        <f>P125-C125</f>
+        <f t="shared" si="340"/>
         <v>-174.81700279907091</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>-401.17475329371518</v>
       </c>
       <c r="AF125">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>-592.89640578583203</v>
       </c>
       <c r="AG125">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-816.3123723052413</v>
       </c>
       <c r="AH125">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-1024.1540859715242</v>
       </c>
       <c r="AI125">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-1416.935684788863</v>
       </c>
       <c r="AJ125">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-1755.5709165405715</v>
       </c>
       <c r="AK125">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-2107.8244856150559</v>
       </c>
       <c r="AL125">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-2485.4077294977033</v>
       </c>
       <c r="AM125">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v>-2891.3599573937972</v>
       </c>
       <c r="AN125">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>-3327.4894209447157</v>
       </c>
       <c r="AO125">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>-3794.4683090735198</v>
       </c>
     </row>
@@ -13310,51 +14518,51 @@
         <v>386705.30939161847</v>
       </c>
       <c r="AD126">
-        <f>P126-C126</f>
+        <f t="shared" si="340"/>
         <v>-419.83374796225689</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>-966.15648962237174</v>
       </c>
       <c r="AF126">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>-1689.1601910105965</v>
       </c>
       <c r="AG126">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-2452.7097781495249</v>
       </c>
       <c r="AH126">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-3295.8180245951517</v>
       </c>
       <c r="AI126">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-4260.5393570762826</v>
       </c>
       <c r="AJ126">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-5335.5784104332561</v>
       </c>
       <c r="AK126">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-6503.1117184706382</v>
       </c>
       <c r="AL126">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-7784.4974493284826</v>
       </c>
       <c r="AM126">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v>-9177.4521491377382</v>
       </c>
       <c r="AN126">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>-10667.511214094411</v>
       </c>
       <c r="AO126">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>-12277.619660729833</v>
       </c>
     </row>
@@ -13438,51 +14646,51 @@
         <v>368763.85568073794</v>
       </c>
       <c r="AD127">
-        <f>P127-C127</f>
+        <f t="shared" si="340"/>
         <v>-1114.3035340392671</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>-2410.0261970489519</v>
       </c>
       <c r="AF127">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>-3870.0489571928629</v>
       </c>
       <c r="AG127">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-4791.1732932330342</v>
       </c>
       <c r="AH127">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-6387.9088375861757</v>
       </c>
       <c r="AI127">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-8075.4997164636152</v>
       </c>
       <c r="AJ127">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-10045.560503719316</v>
       </c>
       <c r="AK127">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-12022.787870295229</v>
       </c>
       <c r="AL127">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-14117.418152867991</v>
       </c>
       <c r="AM127">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v>-16409.464209662925</v>
       </c>
       <c r="AN127">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>-18875.899878025055</v>
       </c>
       <c r="AO127">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>-21677.712232512247</v>
       </c>
     </row>
@@ -13566,51 +14774,51 @@
         <v>88517.72686355008</v>
       </c>
       <c r="AD128">
-        <f>P128-C128</f>
+        <f t="shared" si="340"/>
         <v>108.86484196346646</v>
       </c>
       <c r="AE128">
-        <f t="shared" ref="AE128:AE130" si="351">Q128-D128</f>
+        <f t="shared" ref="AE128:AE130" si="352">Q128-D128</f>
         <v>444.36117570140777</v>
       </c>
       <c r="AF128">
-        <f t="shared" ref="AF128:AF130" si="352">R128-E128</f>
+        <f t="shared" ref="AF128:AF130" si="353">R128-E128</f>
         <v>899.55043638324423</v>
       </c>
       <c r="AG128">
-        <f t="shared" ref="AG128:AG130" si="353">S128-F128</f>
+        <f t="shared" ref="AG128:AG130" si="354">S128-F128</f>
         <v>2013.3593298553242</v>
       </c>
       <c r="AH128">
-        <f t="shared" ref="AH128:AH130" si="354">T128-G128</f>
+        <f t="shared" ref="AH128:AH130" si="355">T128-G128</f>
         <v>3232.2565712698124</v>
       </c>
       <c r="AI128">
-        <f t="shared" ref="AI128:AI130" si="355">U128-H128</f>
+        <f t="shared" ref="AI128:AI130" si="356">U128-H128</f>
         <v>6089.05096519363</v>
       </c>
       <c r="AJ128">
-        <f t="shared" ref="AJ128:AJ130" si="356">V128-I128</f>
+        <f t="shared" ref="AJ128:AJ130" si="357">V128-I128</f>
         <v>8363.8361035542912</v>
       </c>
       <c r="AK128">
-        <f t="shared" ref="AK128:AK130" si="357">W128-J128</f>
+        <f t="shared" ref="AK128:AK130" si="358">W128-J128</f>
         <v>11124.290023320493</v>
       </c>
       <c r="AL128">
-        <f t="shared" ref="AL128:AL130" si="358">X128-K128</f>
+        <f t="shared" ref="AL128:AL130" si="359">X128-K128</f>
         <v>14438.550445087334</v>
       </c>
       <c r="AM128">
-        <f t="shared" ref="AM128:AM130" si="359">Y128-L128</f>
+        <f t="shared" ref="AM128:AM130" si="360">Y128-L128</f>
         <v>18408.247449464689</v>
       </c>
       <c r="AN128">
-        <f t="shared" ref="AN128:AN130" si="360">Z128-M128</f>
+        <f t="shared" ref="AN128:AN130" si="361">Z128-M128</f>
         <v>23172.574113540824</v>
       </c>
       <c r="AO128">
-        <f t="shared" ref="AO128:AO130" si="361">AA128-N128</f>
+        <f t="shared" ref="AO128:AO130" si="362">AA128-N128</f>
         <v>27359.438808426072</v>
       </c>
     </row>
@@ -13694,51 +14902,51 @@
         <v>287439.32505879772</v>
       </c>
       <c r="AD129">
-        <f>P129-C129</f>
+        <f t="shared" si="340"/>
         <v>109.60686267452547</v>
       </c>
       <c r="AE129">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>212.16317593047279</v>
       </c>
       <c r="AF129">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>265.21742231890676</v>
       </c>
       <c r="AG129">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>312.21037107877783</v>
       </c>
       <c r="AH129">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>313.32752618347877</v>
       </c>
       <c r="AI129">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>1011.6659382918733</v>
       </c>
       <c r="AJ129">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>1320.7959402487322</v>
       </c>
       <c r="AK129">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>1649.9778860597289</v>
       </c>
       <c r="AL129">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>2009.0650176408817</v>
       </c>
       <c r="AM129">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>2391.0687209026073</v>
       </c>
       <c r="AN129">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>2803.0566996574053</v>
       </c>
       <c r="AO129">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>3268.7403153780615</v>
       </c>
     </row>
@@ -13822,51 +15030,51 @@
         <v>15191.596165920833</v>
       </c>
       <c r="AD130">
-        <f>P130-C130</f>
+        <f t="shared" si="340"/>
         <v>-30.159785223211657</v>
       </c>
       <c r="AE130">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>-87.642357091846861</v>
       </c>
       <c r="AF130">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>-133.04876220971346</v>
       </c>
       <c r="AG130">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>-183.94350487994961</v>
       </c>
       <c r="AH130">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>-238.5419321223344</v>
       </c>
       <c r="AI130">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-329.90610839087094</v>
       </c>
       <c r="AJ130">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>-408.79515625189379</v>
       </c>
       <c r="AK130">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>-490.87799766442186</v>
       </c>
       <c r="AL130">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>-578.88700864472048</v>
       </c>
       <c r="AM130">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>-673.52454496908285</v>
       </c>
       <c r="AN130">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>-775.2165028458403</v>
       </c>
       <c r="AO130">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>-884.31498975726572</v>
       </c>
     </row>
@@ -13954,47 +15162,47 @@
         <v>-5168.1275023825001</v>
       </c>
       <c r="AE132">
-        <f t="shared" ref="AE132" si="362">Q132-D132</f>
+        <f t="shared" ref="AE132" si="363">Q132-D132</f>
         <v>-11289.277673018514</v>
       </c>
       <c r="AF132">
-        <f t="shared" ref="AF132" si="363">R132-E132</f>
+        <f t="shared" ref="AF132" si="364">R132-E132</f>
         <v>-17850.874827010906</v>
       </c>
       <c r="AG132">
-        <f t="shared" ref="AG132" si="364">S132-F132</f>
+        <f t="shared" ref="AG132" si="365">S132-F132</f>
         <v>-25504.955611872487</v>
       </c>
       <c r="AH132">
-        <f t="shared" ref="AH132" si="365">T132-G132</f>
+        <f t="shared" ref="AH132" si="366">T132-G132</f>
         <v>-33681.047188397148</v>
       </c>
       <c r="AI132">
-        <f t="shared" ref="AI132" si="366">U132-H132</f>
+        <f t="shared" ref="AI132" si="367">U132-H132</f>
         <v>-45198.025992829353</v>
       </c>
       <c r="AJ132">
-        <f t="shared" ref="AJ132" si="367">V132-I132</f>
+        <f t="shared" ref="AJ132" si="368">V132-I132</f>
         <v>-56222.95406969497</v>
       </c>
       <c r="AK132">
-        <f t="shared" ref="AK132" si="368">W132-J132</f>
+        <f t="shared" ref="AK132" si="369">W132-J132</f>
         <v>-68506.108681374695</v>
       </c>
       <c r="AL132">
-        <f t="shared" ref="AL132" si="369">X132-K132</f>
+        <f t="shared" ref="AL132" si="370">X132-K132</f>
         <v>-82290.679395832121</v>
       </c>
       <c r="AM132">
-        <f t="shared" ref="AM132" si="370">Y132-L132</f>
+        <f t="shared" ref="AM132" si="371">Y132-L132</f>
         <v>-97581.945507980068</v>
       </c>
       <c r="AN132">
-        <f t="shared" ref="AN132" si="371">Z132-M132</f>
+        <f t="shared" ref="AN132" si="372">Z132-M132</f>
         <v>-114620.28402032936</v>
       </c>
       <c r="AO132">
-        <f t="shared" ref="AO132" si="372">AA132-N132</f>
+        <f t="shared" ref="AO132" si="373">AA132-N132</f>
         <v>-132649.17362396745</v>
       </c>
     </row>
@@ -14082,47 +15290,47 @@
         <v>-47.274390240596404</v>
       </c>
       <c r="AE134">
-        <f t="shared" ref="AE134" si="373">Q134-D134</f>
+        <f t="shared" ref="AE134" si="374">Q134-D134</f>
         <v>-80.021573527432338</v>
       </c>
       <c r="AF134">
-        <f t="shared" ref="AF134" si="374">R134-E134</f>
+        <f t="shared" ref="AF134" si="375">R134-E134</f>
         <v>-106.23558330150991</v>
       </c>
       <c r="AG134">
-        <f t="shared" ref="AG134" si="375">S134-F134</f>
+        <f t="shared" ref="AG134" si="376">S134-F134</f>
         <v>-129.0917165335959</v>
       </c>
       <c r="AH134">
-        <f t="shared" ref="AH134" si="376">T134-G134</f>
+        <f t="shared" ref="AH134" si="377">T134-G134</f>
         <v>-86.145335808596428</v>
       </c>
       <c r="AI134">
-        <f t="shared" ref="AI134" si="377">U134-H134</f>
+        <f t="shared" ref="AI134" si="378">U134-H134</f>
         <v>-113.71402536104142</v>
       </c>
       <c r="AJ134">
-        <f t="shared" ref="AJ134" si="378">V134-I134</f>
+        <f t="shared" ref="AJ134" si="379">V134-I134</f>
         <v>-139.08372185159897</v>
       </c>
       <c r="AK134">
-        <f t="shared" ref="AK134" si="379">W134-J134</f>
+        <f t="shared" ref="AK134" si="380">W134-J134</f>
         <v>-166.48941126904901</v>
       </c>
       <c r="AL134">
-        <f t="shared" ref="AL134" si="380">X134-K134</f>
+        <f t="shared" ref="AL134" si="381">X134-K134</f>
         <v>-196.09189125910052</v>
       </c>
       <c r="AM134">
-        <f t="shared" ref="AM134" si="381">Y134-L134</f>
+        <f t="shared" ref="AM134" si="382">Y134-L134</f>
         <v>-227.99429750034324</v>
       </c>
       <c r="AN134">
-        <f t="shared" ref="AN134" si="382">Z134-M134</f>
+        <f t="shared" ref="AN134" si="383">Z134-M134</f>
         <v>-259.70189788765856</v>
       </c>
       <c r="AO134">
-        <f t="shared" ref="AO134" si="383">AA134-N134</f>
+        <f t="shared" ref="AO134" si="384">AA134-N134</f>
         <v>-293.19410632128711</v>
       </c>
     </row>
@@ -14210,47 +15418,47 @@
         <v>0</v>
       </c>
       <c r="AE136">
-        <f t="shared" ref="AE136" si="384">Q136-D136</f>
+        <f t="shared" ref="AE136" si="385">Q136-D136</f>
         <v>0</v>
       </c>
       <c r="AF136">
-        <f t="shared" ref="AF136" si="385">R136-E136</f>
+        <f t="shared" ref="AF136" si="386">R136-E136</f>
         <v>0</v>
       </c>
       <c r="AG136">
-        <f t="shared" ref="AG136" si="386">S136-F136</f>
+        <f t="shared" ref="AG136" si="387">S136-F136</f>
         <v>0</v>
       </c>
       <c r="AH136">
-        <f t="shared" ref="AH136" si="387">T136-G136</f>
+        <f t="shared" ref="AH136" si="388">T136-G136</f>
         <v>0</v>
       </c>
       <c r="AI136">
-        <f t="shared" ref="AI136" si="388">U136-H136</f>
+        <f t="shared" ref="AI136" si="389">U136-H136</f>
         <v>0</v>
       </c>
       <c r="AJ136">
-        <f t="shared" ref="AJ136" si="389">V136-I136</f>
+        <f t="shared" ref="AJ136" si="390">V136-I136</f>
         <v>0</v>
       </c>
       <c r="AK136">
-        <f t="shared" ref="AK136" si="390">W136-J136</f>
+        <f t="shared" ref="AK136" si="391">W136-J136</f>
         <v>0</v>
       </c>
       <c r="AL136">
-        <f t="shared" ref="AL136" si="391">X136-K136</f>
+        <f t="shared" ref="AL136" si="392">X136-K136</f>
         <v>0</v>
       </c>
       <c r="AM136">
-        <f t="shared" ref="AM136" si="392">Y136-L136</f>
+        <f t="shared" ref="AM136" si="393">Y136-L136</f>
         <v>0</v>
       </c>
       <c r="AN136">
-        <f t="shared" ref="AN136" si="393">Z136-M136</f>
+        <f t="shared" ref="AN136" si="394">Z136-M136</f>
         <v>0</v>
       </c>
       <c r="AO136">
-        <f t="shared" ref="AO136" si="394">AA136-N136</f>
+        <f t="shared" ref="AO136" si="395">AA136-N136</f>
         <v>0</v>
       </c>
     </row>
@@ -14338,47 +15546,47 @@
         <v>-5120.8531121419037</v>
       </c>
       <c r="AE138">
-        <f t="shared" ref="AE138" si="395">Q138-D138</f>
+        <f t="shared" ref="AE138" si="396">Q138-D138</f>
         <v>-11209.256099491082</v>
       </c>
       <c r="AF138">
-        <f t="shared" ref="AF138" si="396">R138-E138</f>
+        <f t="shared" ref="AF138" si="397">R138-E138</f>
         <v>-17744.639243709396</v>
       </c>
       <c r="AG138">
-        <f t="shared" ref="AG138" si="397">S138-F138</f>
+        <f t="shared" ref="AG138" si="398">S138-F138</f>
         <v>-25375.863895338887</v>
       </c>
       <c r="AH138">
-        <f t="shared" ref="AH138" si="398">T138-G138</f>
+        <f t="shared" ref="AH138" si="399">T138-G138</f>
         <v>-33594.901852588548</v>
       </c>
       <c r="AI138">
-        <f t="shared" ref="AI138" si="399">U138-H138</f>
+        <f t="shared" ref="AI138" si="400">U138-H138</f>
         <v>-45084.311967468318</v>
       </c>
       <c r="AJ138">
-        <f t="shared" ref="AJ138" si="400">V138-I138</f>
+        <f t="shared" ref="AJ138" si="401">V138-I138</f>
         <v>-56083.870347843367</v>
       </c>
       <c r="AK138">
-        <f t="shared" ref="AK138" si="401">W138-J138</f>
+        <f t="shared" ref="AK138" si="402">W138-J138</f>
         <v>-68339.619270105642</v>
       </c>
       <c r="AL138">
-        <f t="shared" ref="AL138" si="402">X138-K138</f>
+        <f t="shared" ref="AL138" si="403">X138-K138</f>
         <v>-82094.587504573021</v>
       </c>
       <c r="AM138">
-        <f t="shared" ref="AM138" si="403">Y138-L138</f>
+        <f t="shared" ref="AM138" si="404">Y138-L138</f>
         <v>-97353.951210479718</v>
       </c>
       <c r="AN138">
-        <f t="shared" ref="AN138" si="404">Z138-M138</f>
+        <f t="shared" ref="AN138" si="405">Z138-M138</f>
         <v>-114360.58212244172</v>
       </c>
       <c r="AO138">
-        <f t="shared" ref="AO138" si="405">AA138-N138</f>
+        <f t="shared" ref="AO138" si="406">AA138-N138</f>
         <v>-132355.97951764616</v>
       </c>
     </row>
@@ -14466,47 +15674,47 @@
         <v>-34.456846742443304</v>
       </c>
       <c r="AE140">
-        <f t="shared" ref="AE140" si="406">Q140-D140</f>
+        <f t="shared" ref="AE140" si="407">Q140-D140</f>
         <v>-127.35312455095118</v>
       </c>
       <c r="AF140">
-        <f t="shared" ref="AF140" si="407">R140-E140</f>
+        <f t="shared" ref="AF140" si="408">R140-E140</f>
         <v>-163.72616254007153</v>
       </c>
       <c r="AG140">
-        <f t="shared" ref="AG140" si="408">S140-F140</f>
+        <f t="shared" ref="AG140" si="409">S140-F140</f>
         <v>-130.72305657050674</v>
       </c>
       <c r="AH140">
-        <f t="shared" ref="AH140" si="409">T140-G140</f>
+        <f t="shared" ref="AH140" si="410">T140-G140</f>
         <v>-78.236447980038065</v>
       </c>
       <c r="AI140">
-        <f t="shared" ref="AI140" si="410">U140-H140</f>
+        <f t="shared" ref="AI140" si="411">U140-H140</f>
         <v>-155.39329853133313</v>
       </c>
       <c r="AJ140">
-        <f t="shared" ref="AJ140" si="411">V140-I140</f>
+        <f t="shared" ref="AJ140" si="412">V140-I140</f>
         <v>-187.62270798590907</v>
       </c>
       <c r="AK140">
-        <f t="shared" ref="AK140" si="412">W140-J140</f>
+        <f t="shared" ref="AK140" si="413">W140-J140</f>
         <v>-222.20889099747546</v>
       </c>
       <c r="AL140">
-        <f t="shared" ref="AL140" si="413">X140-K140</f>
+        <f t="shared" ref="AL140" si="414">X140-K140</f>
         <v>-259.98874129088108</v>
       </c>
       <c r="AM140">
-        <f t="shared" ref="AM140" si="414">Y140-L140</f>
+        <f t="shared" ref="AM140" si="415">Y140-L140</f>
         <v>-301.33151239652034</v>
       </c>
       <c r="AN140">
-        <f t="shared" ref="AN140" si="415">Z140-M140</f>
+        <f t="shared" ref="AN140" si="416">Z140-M140</f>
         <v>-346.46944806540341</v>
       </c>
       <c r="AO140">
-        <f t="shared" ref="AO140" si="416">AA140-N140</f>
+        <f t="shared" ref="AO140" si="417">AA140-N140</f>
         <v>-395.48027186651052</v>
       </c>
     </row>
@@ -14594,47 +15802,47 @@
         <v>-5086.3962653994604</v>
       </c>
       <c r="AE142">
-        <f t="shared" ref="AE142" si="417">Q142-D142</f>
+        <f t="shared" ref="AE142" si="418">Q142-D142</f>
         <v>-11081.902974940138</v>
       </c>
       <c r="AF142">
-        <f t="shared" ref="AF142" si="418">R142-E142</f>
+        <f t="shared" ref="AF142" si="419">R142-E142</f>
         <v>-17580.913081169332</v>
       </c>
       <c r="AG142">
-        <f t="shared" ref="AG142" si="419">S142-F142</f>
+        <f t="shared" ref="AG142" si="420">S142-F142</f>
         <v>-25245.140838768377</v>
       </c>
       <c r="AH142">
-        <f t="shared" ref="AH142" si="420">T142-G142</f>
+        <f t="shared" ref="AH142" si="421">T142-G142</f>
         <v>-33516.665404608502</v>
       </c>
       <c r="AI142">
-        <f t="shared" ref="AI142" si="421">U142-H142</f>
+        <f t="shared" ref="AI142" si="422">U142-H142</f>
         <v>-44928.918668936982</v>
       </c>
       <c r="AJ142">
-        <f t="shared" ref="AJ142" si="422">V142-I142</f>
+        <f t="shared" ref="AJ142" si="423">V142-I142</f>
         <v>-55896.247639857465</v>
       </c>
       <c r="AK142">
-        <f t="shared" ref="AK142" si="423">W142-J142</f>
+        <f t="shared" ref="AK142" si="424">W142-J142</f>
         <v>-68117.410379108172</v>
       </c>
       <c r="AL142">
-        <f t="shared" ref="AL142" si="424">X142-K142</f>
+        <f t="shared" ref="AL142" si="425">X142-K142</f>
         <v>-81834.598763282149</v>
       </c>
       <c r="AM142">
-        <f t="shared" ref="AM142" si="425">Y142-L142</f>
+        <f t="shared" ref="AM142" si="426">Y142-L142</f>
         <v>-97052.619698083203</v>
       </c>
       <c r="AN142">
-        <f t="shared" ref="AN142" si="426">Z142-M142</f>
+        <f t="shared" ref="AN142" si="427">Z142-M142</f>
         <v>-114014.1126743763</v>
       </c>
       <c r="AO142">
-        <f t="shared" ref="AO142" si="427">AA142-N142</f>
+        <f t="shared" ref="AO142" si="428">AA142-N142</f>
         <v>-131960.49924577962</v>
       </c>
     </row>
@@ -14722,47 +15930,47 @@
         <v>-8.5612816379307333</v>
       </c>
       <c r="AE144">
-        <f t="shared" ref="AE144" si="428">Q144-D144</f>
+        <f t="shared" ref="AE144" si="429">Q144-D144</f>
         <v>-11.428219705685478</v>
       </c>
       <c r="AF144">
-        <f t="shared" ref="AF144" si="429">R144-E144</f>
+        <f t="shared" ref="AF144" si="430">R144-E144</f>
         <v>-15.416575140465284</v>
       </c>
       <c r="AG144">
-        <f t="shared" ref="AG144" si="430">S144-F144</f>
+        <f t="shared" ref="AG144" si="431">S144-F144</f>
         <v>-19.011152160313941</v>
       </c>
       <c r="AH144">
-        <f t="shared" ref="AH144" si="431">T144-G144</f>
+        <f t="shared" ref="AH144" si="432">T144-G144</f>
         <v>-39.294154775155221</v>
       </c>
       <c r="AI144">
-        <f t="shared" ref="AI144" si="432">U144-H144</f>
+        <f t="shared" ref="AI144" si="433">U144-H144</f>
         <v>-49.482339427984698</v>
       </c>
       <c r="AJ144">
-        <f t="shared" ref="AJ144" si="433">V144-I144</f>
+        <f t="shared" ref="AJ144" si="434">V144-I144</f>
         <v>-60.521891751854128</v>
       </c>
       <c r="AK144">
-        <f t="shared" ref="AK144" si="434">W144-J144</f>
+        <f t="shared" ref="AK144" si="435">W144-J144</f>
         <v>-72.447400691553412</v>
       </c>
       <c r="AL144">
-        <f t="shared" ref="AL144" si="435">X144-K144</f>
+        <f t="shared" ref="AL144" si="436">X144-K144</f>
         <v>-85.328836891947503</v>
       </c>
       <c r="AM144">
-        <f t="shared" ref="AM144" si="436">Y144-L144</f>
+        <f t="shared" ref="AM144" si="437">Y144-L144</f>
         <v>-99.211079554503158</v>
       </c>
       <c r="AN144">
-        <f t="shared" ref="AN144" si="437">Z144-M144</f>
+        <f t="shared" ref="AN144" si="438">Z144-M144</f>
         <v>-114.15266642247479</v>
       </c>
       <c r="AO144">
-        <f t="shared" ref="AO144" si="438">AA144-N144</f>
+        <f t="shared" ref="AO144" si="439">AA144-N144</f>
         <v>-130.19234090549071</v>
       </c>
     </row>
@@ -14850,47 +16058,47 @@
         <v>0</v>
       </c>
       <c r="AE146">
-        <f t="shared" ref="AE146" si="439">Q146-D146</f>
+        <f t="shared" ref="AE146" si="440">Q146-D146</f>
         <v>0</v>
       </c>
       <c r="AF146">
-        <f t="shared" ref="AF146" si="440">R146-E146</f>
+        <f t="shared" ref="AF146" si="441">R146-E146</f>
         <v>0</v>
       </c>
       <c r="AG146">
-        <f t="shared" ref="AG146" si="441">S146-F146</f>
+        <f t="shared" ref="AG146" si="442">S146-F146</f>
         <v>0</v>
       </c>
       <c r="AH146">
-        <f t="shared" ref="AH146" si="442">T146-G146</f>
+        <f t="shared" ref="AH146" si="443">T146-G146</f>
         <v>0</v>
       </c>
       <c r="AI146">
-        <f t="shared" ref="AI146" si="443">U146-H146</f>
+        <f t="shared" ref="AI146" si="444">U146-H146</f>
         <v>0</v>
       </c>
       <c r="AJ146">
-        <f t="shared" ref="AJ146" si="444">V146-I146</f>
+        <f t="shared" ref="AJ146" si="445">V146-I146</f>
         <v>0</v>
       </c>
       <c r="AK146">
-        <f t="shared" ref="AK146" si="445">W146-J146</f>
+        <f t="shared" ref="AK146" si="446">W146-J146</f>
         <v>0</v>
       </c>
       <c r="AL146">
-        <f t="shared" ref="AL146" si="446">X146-K146</f>
+        <f t="shared" ref="AL146" si="447">X146-K146</f>
         <v>0</v>
       </c>
       <c r="AM146">
-        <f t="shared" ref="AM146" si="447">Y146-L146</f>
+        <f t="shared" ref="AM146" si="448">Y146-L146</f>
         <v>0</v>
       </c>
       <c r="AN146">
-        <f t="shared" ref="AN146" si="448">Z146-M146</f>
+        <f t="shared" ref="AN146" si="449">Z146-M146</f>
         <v>0</v>
       </c>
       <c r="AO146">
-        <f t="shared" ref="AO146" si="449">AA146-N146</f>
+        <f t="shared" ref="AO146" si="450">AA146-N146</f>
         <v>0</v>
       </c>
     </row>
@@ -14978,47 +16186,47 @@
         <v>280.49797157215653</v>
       </c>
       <c r="AE148">
-        <f t="shared" ref="AE148" si="450">Q148-D148</f>
+        <f t="shared" ref="AE148" si="451">Q148-D148</f>
         <v>-3400.9052694682032</v>
       </c>
       <c r="AF148">
-        <f t="shared" ref="AF148" si="451">R148-E148</f>
+        <f t="shared" ref="AF148" si="452">R148-E148</f>
         <v>-8452.1132561230334</v>
       </c>
       <c r="AG148">
-        <f t="shared" ref="AG148" si="452">S148-F148</f>
+        <f t="shared" ref="AG148" si="453">S148-F148</f>
         <v>-11366.496424749843</v>
       </c>
       <c r="AH148">
-        <f t="shared" ref="AH148" si="453">T148-G148</f>
+        <f t="shared" ref="AH148" si="454">T148-G148</f>
         <v>-14303.373223160626</v>
       </c>
       <c r="AI148">
-        <f t="shared" ref="AI148" si="454">U148-H148</f>
+        <f t="shared" ref="AI148" si="455">U148-H148</f>
         <v>-13610.300437558675</v>
       </c>
       <c r="AJ148">
-        <f t="shared" ref="AJ148" si="455">V148-I148</f>
+        <f t="shared" ref="AJ148" si="456">V148-I148</f>
         <v>-12618.133667837828</v>
       </c>
       <c r="AK148">
-        <f t="shared" ref="AK148" si="456">W148-J148</f>
+        <f t="shared" ref="AK148" si="457">W148-J148</f>
         <v>-10824.851324675838</v>
       </c>
       <c r="AL148">
-        <f t="shared" ref="AL148" si="457">X148-K148</f>
+        <f t="shared" ref="AL148" si="458">X148-K148</f>
         <v>-8104.3811914549442</v>
       </c>
       <c r="AM148">
-        <f t="shared" ref="AM148" si="458">Y148-L148</f>
+        <f t="shared" ref="AM148" si="459">Y148-L148</f>
         <v>-4432.1953426045366</v>
       </c>
       <c r="AN148">
-        <f t="shared" ref="AN148" si="459">Z148-M148</f>
+        <f t="shared" ref="AN148" si="460">Z148-M148</f>
         <v>663.31952185981208</v>
       </c>
       <c r="AO148">
-        <f t="shared" ref="AO148" si="460">AA148-N148</f>
+        <f t="shared" ref="AO148" si="461">AA148-N148</f>
         <v>8880.2688091545133</v>
       </c>
     </row>
@@ -15106,47 +16314,47 @@
         <v>5362.7589003741159</v>
       </c>
       <c r="AE150">
-        <f t="shared" ref="AE150" si="461">Q150-D150</f>
+        <f t="shared" ref="AE150" si="462">Q150-D150</f>
         <v>7553.0101050755475</v>
       </c>
       <c r="AF150">
-        <f t="shared" ref="AF150" si="462">R150-E150</f>
+        <f t="shared" ref="AF150" si="463">R150-E150</f>
         <v>8896.4716428000247</v>
       </c>
       <c r="AG150">
-        <f t="shared" ref="AG150" si="463">S150-F150</f>
+        <f t="shared" ref="AG150" si="464">S150-F150</f>
         <v>13535.579706826946</v>
       </c>
       <c r="AH150">
-        <f t="shared" ref="AH150" si="464">T150-G150</f>
+        <f t="shared" ref="AH150" si="465">T150-G150</f>
         <v>18667.684446884552</v>
       </c>
       <c r="AI150">
-        <f t="shared" ref="AI150" si="465">U150-H150</f>
+        <f t="shared" ref="AI150" si="466">U150-H150</f>
         <v>31080.372061745962</v>
       </c>
       <c r="AJ150">
-        <f t="shared" ref="AJ150" si="466">V150-I150</f>
+        <f t="shared" ref="AJ150" si="467">V150-I150</f>
         <v>42998.331030442379</v>
       </c>
       <c r="AK150">
-        <f t="shared" ref="AK150" si="467">W150-J150</f>
+        <f t="shared" ref="AK150" si="468">W150-J150</f>
         <v>56968.580097583821</v>
       </c>
       <c r="AL150">
-        <f t="shared" ref="AL150" si="468">X150-K150</f>
+        <f t="shared" ref="AL150" si="469">X150-K150</f>
         <v>73356.71223408822</v>
       </c>
       <c r="AM150">
-        <f t="shared" ref="AM150" si="469">Y150-L150</f>
+        <f t="shared" ref="AM150" si="470">Y150-L150</f>
         <v>92192.044745397172</v>
       </c>
       <c r="AN150">
-        <f t="shared" ref="AN150" si="470">Z150-M150</f>
+        <f t="shared" ref="AN150" si="471">Z150-M150</f>
         <v>114187.44209591881</v>
       </c>
       <c r="AO150">
-        <f t="shared" ref="AO150" si="471">AA150-N150</f>
+        <f t="shared" ref="AO150" si="472">AA150-N150</f>
         <v>140281.11867577594</v>
       </c>
     </row>
@@ -15234,47 +16442,47 @@
         <v>4.4259450404206291</v>
       </c>
       <c r="AE152">
-        <f t="shared" ref="AE152" si="472">Q152-D152</f>
+        <f t="shared" ref="AE152" si="473">Q152-D152</f>
         <v>-116.55938069068361</v>
       </c>
       <c r="AF152">
-        <f t="shared" ref="AF152" si="473">R152-E152</f>
+        <f t="shared" ref="AF152" si="474">R152-E152</f>
         <v>-216.91160710586701</v>
       </c>
       <c r="AG152">
-        <f t="shared" ref="AG152" si="474">S152-F152</f>
+        <f t="shared" ref="AG152" si="475">S152-F152</f>
         <v>-324.05355503130704</v>
       </c>
       <c r="AH152">
-        <f t="shared" ref="AH152" si="475">T152-G152</f>
+        <f t="shared" ref="AH152" si="476">T152-G152</f>
         <v>-506.31357978819869</v>
       </c>
       <c r="AI152">
-        <f t="shared" ref="AI152" si="476">U152-H152</f>
+        <f t="shared" ref="AI152" si="477">U152-H152</f>
         <v>-188.76383020437788</v>
       </c>
       <c r="AJ152">
-        <f t="shared" ref="AJ152" si="477">V152-I152</f>
+        <f t="shared" ref="AJ152" si="478">V152-I152</f>
         <v>-219.26104982546531</v>
       </c>
       <c r="AK152">
-        <f t="shared" ref="AK152" si="478">W152-J152</f>
+        <f t="shared" ref="AK152" si="479">W152-J152</f>
         <v>-251.531556157046</v>
       </c>
       <c r="AL152">
-        <f t="shared" ref="AL152" si="479">X152-K152</f>
+        <f t="shared" ref="AL152" si="480">X152-K152</f>
         <v>-288.17650084709749</v>
       </c>
       <c r="AM152">
-        <f t="shared" ref="AM152" si="480">Y152-L152</f>
+        <f t="shared" ref="AM152" si="481">Y152-L152</f>
         <v>-329.16853052703664</v>
       </c>
       <c r="AN152">
-        <f t="shared" ref="AN152" si="481">Z152-M152</f>
+        <f t="shared" ref="AN152" si="482">Z152-M152</f>
         <v>-375.83743389486335</v>
       </c>
       <c r="AO152">
-        <f t="shared" ref="AO152" si="482">AA152-N152</f>
+        <f t="shared" ref="AO152" si="483">AA152-N152</f>
         <v>-429.45703825267265</v>
       </c>
     </row>
@@ -15367,47 +16575,47 @@
         <v>-1629.507207349292</v>
       </c>
       <c r="AE155">
-        <f t="shared" ref="AE155:AE157" si="483">Q155-D155</f>
+        <f t="shared" ref="AE155:AE157" si="484">Q155-D155</f>
         <v>-3652.8366211263929</v>
       </c>
       <c r="AF155">
-        <f t="shared" ref="AF155:AF157" si="484">R155-E155</f>
+        <f t="shared" ref="AF155:AF157" si="485">R155-E155</f>
         <v>-6019.9368938801344</v>
       </c>
       <c r="AG155">
-        <f t="shared" ref="AG155:AG157" si="485">S155-F155</f>
+        <f t="shared" ref="AG155:AG157" si="486">S155-F155</f>
         <v>-7931.9285774888704</v>
       </c>
       <c r="AH155">
-        <f t="shared" ref="AH155:AH157" si="486">T155-G155</f>
+        <f t="shared" ref="AH155:AH157" si="487">T155-G155</f>
         <v>-10633.095354091725</v>
       </c>
       <c r="AI155">
-        <f t="shared" ref="AI155:AI157" si="487">U155-H155</f>
+        <f t="shared" ref="AI155:AI157" si="488">U155-H155</f>
         <v>-13071.214928427944</v>
       </c>
       <c r="AJ155">
-        <f t="shared" ref="AJ155:AJ157" si="488">V155-I155</f>
+        <f t="shared" ref="AJ155:AJ157" si="489">V155-I155</f>
         <v>-16224.709046696196</v>
       </c>
       <c r="AK155">
-        <f t="shared" ref="AK155:AK157" si="489">W155-J155</f>
+        <f t="shared" ref="AK155:AK157" si="490">W155-J155</f>
         <v>-19474.624185985769</v>
       </c>
       <c r="AL155">
-        <f t="shared" ref="AL155:AL157" si="490">X155-K155</f>
+        <f t="shared" ref="AL155:AL157" si="491">X155-K155</f>
         <v>-22957.145322698168</v>
       </c>
       <c r="AM155">
-        <f t="shared" ref="AM155:AM157" si="491">Y155-L155</f>
+        <f t="shared" ref="AM155:AM157" si="492">Y155-L155</f>
         <v>-26760.732140260865</v>
       </c>
       <c r="AN155">
-        <f t="shared" ref="AN155:AN157" si="492">Z155-M155</f>
+        <f t="shared" ref="AN155:AN157" si="493">Z155-M155</f>
         <v>-30843.060316252755</v>
       </c>
       <c r="AO155">
-        <f t="shared" ref="AO155:AO157" si="493">AA155-N155</f>
+        <f t="shared" ref="AO155:AO157" si="494">AA155-N155</f>
         <v>-35365.374876694754</v>
       </c>
     </row>
@@ -15495,47 +16703,47 @@
         <v>-5010.4783188874935</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="483"/>
+        <f t="shared" si="484"/>
         <v>-10760.685163487055</v>
       </c>
       <c r="AF156">
-        <f t="shared" si="484"/>
+        <f t="shared" si="485"/>
         <v>-16837.44438371007</v>
       </c>
       <c r="AG156">
-        <f t="shared" si="485"/>
+        <f t="shared" si="486"/>
         <v>-23350.83166091032</v>
       </c>
       <c r="AH156">
-        <f t="shared" si="486"/>
+        <f t="shared" si="487"/>
         <v>-30346.900449827299</v>
       </c>
       <c r="AI156">
-        <f t="shared" si="487"/>
+        <f t="shared" si="488"/>
         <v>-38974.885362558685</v>
       </c>
       <c r="AJ156">
-        <f t="shared" si="488"/>
+        <f t="shared" si="489"/>
         <v>-47694.185817504971</v>
       </c>
       <c r="AK156">
-        <f t="shared" si="489"/>
+        <f t="shared" si="490"/>
         <v>-57183.960926796193</v>
       </c>
       <c r="AL156">
-        <f t="shared" si="490"/>
+        <f t="shared" si="491"/>
         <v>-67619.060400454982</v>
       </c>
       <c r="AM156">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>-78902.980357196662</v>
       </c>
       <c r="AN156">
-        <f t="shared" si="492"/>
+        <f t="shared" si="493"/>
         <v>-91139.341651550247</v>
       </c>
       <c r="AO156">
-        <f t="shared" si="493"/>
+        <f t="shared" si="494"/>
         <v>-104941.68861599994</v>
       </c>
     </row>
@@ -15623,47 +16831,47 @@
         <v>110.37479325441018</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="483"/>
+        <f t="shared" si="484"/>
         <v>448.57093600402368</v>
       </c>
       <c r="AF157">
-        <f t="shared" si="484"/>
+        <f t="shared" si="485"/>
         <v>907.19485999932658</v>
       </c>
       <c r="AG157">
-        <f t="shared" si="485"/>
+        <f t="shared" si="486"/>
         <v>2025.0322344285632</v>
       </c>
       <c r="AH157">
-        <f t="shared" si="486"/>
+        <f t="shared" si="487"/>
         <v>3248.0014027612451</v>
       </c>
       <c r="AI157">
-        <f t="shared" si="487"/>
+        <f t="shared" si="488"/>
         <v>6109.4266049096332</v>
       </c>
       <c r="AJ157">
-        <f t="shared" si="488"/>
+        <f t="shared" si="489"/>
         <v>8389.6845303383961</v>
       </c>
       <c r="AK157">
-        <f t="shared" si="489"/>
+        <f t="shared" si="490"/>
         <v>11155.658343309457</v>
       </c>
       <c r="AL157">
-        <f t="shared" si="490"/>
+        <f t="shared" si="491"/>
         <v>14475.527104118039</v>
       </c>
       <c r="AM157">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>18450.970853283055</v>
       </c>
       <c r="AN157">
-        <f t="shared" si="492"/>
+        <f t="shared" si="493"/>
         <v>23221.240470891469</v>
       </c>
       <c r="AO157">
-        <f t="shared" si="493"/>
+        <f t="shared" si="494"/>
         <v>27414.290901646236</v>
       </c>
     </row>
@@ -15751,47 +16959,47 @@
         <v>6799.3134156276938</v>
       </c>
       <c r="AE159">
-        <f t="shared" ref="AE159" si="494">Q159-D159</f>
+        <f t="shared" ref="AE159" si="495">Q159-D159</f>
         <v>19924.895277542295</v>
       </c>
       <c r="AF159">
-        <f t="shared" ref="AF159" si="495">R159-E159</f>
+        <f t="shared" ref="AF159" si="496">R159-E159</f>
         <v>39753.540577314678</v>
       </c>
       <c r="AG159">
-        <f t="shared" ref="AG159" si="496">S159-F159</f>
+        <f t="shared" ref="AG159" si="497">S159-F159</f>
         <v>67936.472823675605</v>
       </c>
       <c r="AH159">
-        <f t="shared" ref="AH159" si="497">T159-G159</f>
+        <f t="shared" ref="AH159" si="498">T159-G159</f>
         <v>104325.1200179744</v>
       </c>
       <c r="AI159">
-        <f t="shared" ref="AI159" si="498">U159-H159</f>
+        <f t="shared" ref="AI159" si="499">U159-H159</f>
         <v>151881.14687438624</v>
       </c>
       <c r="AJ159">
-        <f t="shared" ref="AJ159" si="499">V159-I159</f>
+        <f t="shared" ref="AJ159" si="500">V159-I159</f>
         <v>210736.00643787929</v>
       </c>
       <c r="AK159">
-        <f t="shared" ref="AK159" si="500">W159-J159</f>
+        <f t="shared" ref="AK159" si="501">W159-J159</f>
         <v>282126.28956864169</v>
       </c>
       <c r="AL159">
-        <f t="shared" ref="AL159" si="501">X159-K159</f>
+        <f t="shared" ref="AL159" si="502">X159-K159</f>
         <v>367605.46579780825</v>
       </c>
       <c r="AM159">
-        <f t="shared" ref="AM159" si="502">Y159-L159</f>
+        <f t="shared" ref="AM159" si="503">Y159-L159</f>
         <v>468729.39906002092</v>
       </c>
       <c r="AN159">
-        <f t="shared" ref="AN159" si="503">Z159-M159</f>
+        <f t="shared" ref="AN159" si="504">Z159-M159</f>
         <v>587304.46264884935</v>
       </c>
       <c r="AO159">
-        <f t="shared" ref="AO159" si="504">AA159-N159</f>
+        <f t="shared" ref="AO159" si="505">AA159-N159</f>
         <v>725908.4208644816</v>
       </c>
     </row>
@@ -15879,47 +17087,47 @@
         <v>5082.2609288019594</v>
       </c>
       <c r="AE161">
-        <f t="shared" ref="AE161" si="505">Q161-D161</f>
+        <f t="shared" ref="AE161" si="506">Q161-D161</f>
         <v>16032.137132555014</v>
       </c>
       <c r="AF161">
-        <f t="shared" ref="AF161" si="506">R161-E161</f>
+        <f t="shared" ref="AF161" si="507">R161-E161</f>
         <v>33350.657426672056</v>
       </c>
       <c r="AG161">
-        <f t="shared" ref="AG161" si="507">S161-F161</f>
+        <f t="shared" ref="AG161" si="508">S161-F161</f>
         <v>58227.196483348031</v>
       </c>
       <c r="AH161">
-        <f t="shared" ref="AH161" si="508">T161-G161</f>
+        <f t="shared" ref="AH161" si="509">T161-G161</f>
         <v>91212.563782047946</v>
       </c>
       <c r="AI161">
-        <f t="shared" ref="AI161" si="509">U161-H161</f>
+        <f t="shared" ref="AI161" si="510">U161-H161</f>
         <v>135725.71466435795</v>
       </c>
       <c r="AJ161">
-        <f t="shared" ref="AJ161" si="510">V161-I161</f>
+        <f t="shared" ref="AJ161" si="511">V161-I161</f>
         <v>191113.70838198205</v>
       </c>
       <c r="AK161">
-        <f t="shared" ref="AK161" si="511">W161-J161</f>
+        <f t="shared" ref="AK161" si="512">W161-J161</f>
         <v>258627.56488484051</v>
       </c>
       <c r="AL161">
-        <f t="shared" ref="AL161" si="512">X161-K161</f>
+        <f t="shared" ref="AL161" si="513">X161-K161</f>
         <v>339759.55941350874</v>
       </c>
       <c r="AM161">
-        <f t="shared" ref="AM161" si="513">Y161-L161</f>
+        <f t="shared" ref="AM161" si="514">Y161-L161</f>
         <v>436005.8875116061</v>
       </c>
       <c r="AN161">
-        <f t="shared" ref="AN161" si="514">Z161-M161</f>
+        <f t="shared" ref="AN161" si="515">Z161-M161</f>
         <v>549104.1218574727</v>
       </c>
       <c r="AO161">
-        <f t="shared" ref="AO161" si="515">AA161-N161</f>
+        <f t="shared" ref="AO161" si="516">AA161-N161</f>
         <v>681562.67225962668</v>
       </c>
     </row>
@@ -15942,7 +17150,251 @@
         <v>-0.32538470689547733</v>
       </c>
     </row>
+    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s">
+        <v>15</v>
+      </c>
+      <c r="L171" t="s">
+        <v>16</v>
+      </c>
+      <c r="M171" t="s">
+        <v>17</v>
+      </c>
+      <c r="N171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172">
+        <v>704502.63866873004</v>
+      </c>
+      <c r="C172">
+        <v>717568</v>
+      </c>
+      <c r="D172">
+        <v>750262</v>
+      </c>
+      <c r="E172">
+        <v>783559</v>
+      </c>
+      <c r="F172">
+        <v>815429</v>
+      </c>
+      <c r="G172">
+        <v>862841.6232953592</v>
+      </c>
+      <c r="H172">
+        <v>915973.50967414642</v>
+      </c>
+      <c r="I172">
+        <v>971931.15521373821</v>
+      </c>
+      <c r="J172">
+        <v>1028103.6396359721</v>
+      </c>
+      <c r="K172">
+        <v>1088910.0599416967</v>
+      </c>
+      <c r="L172">
+        <v>1152885.1061323041</v>
+      </c>
+      <c r="M172">
+        <v>1220177.3971587794</v>
+      </c>
+      <c r="N172">
+        <v>1294936.1594378706</v>
+      </c>
+    </row>
+    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>704502.63866873004</v>
+      </c>
+      <c r="C173">
+        <v>710794.94698487176</v>
+      </c>
+      <c r="D173">
+        <v>735580.26856491459</v>
+      </c>
+      <c r="E173">
+        <v>760281.57209263963</v>
+      </c>
+      <c r="F173">
+        <v>783599.06717733503</v>
+      </c>
+      <c r="G173">
+        <v>821129.13538558607</v>
+      </c>
+      <c r="H173">
+        <v>863080.27123073197</v>
+      </c>
+      <c r="I173">
+        <v>906941.59979671345</v>
+      </c>
+      <c r="J173">
+        <v>950132.01540930348</v>
+      </c>
+      <c r="K173">
+        <v>996751.91389341606</v>
+      </c>
+      <c r="L173">
+        <v>1045344.8250665184</v>
+      </c>
+      <c r="M173">
+        <v>1095974.9123965092</v>
+      </c>
+      <c r="N173">
+        <v>1152011.4463283655</v>
+      </c>
+    </row>
+    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>131</v>
+      </c>
+      <c r="B174">
+        <f>B172/1000</f>
+        <v>704.50263866873001</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:N175" si="517">C172/1000</f>
+        <v>717.56799999999998</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="517"/>
+        <v>750.26199999999994</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="517"/>
+        <v>783.55899999999997</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="517"/>
+        <v>815.42899999999997</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="517"/>
+        <v>862.84162329535923</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="517"/>
+        <v>915.97350967414638</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="517"/>
+        <v>971.93115521373818</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="517"/>
+        <v>1028.1036396359721</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="517"/>
+        <v>1088.9100599416968</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="517"/>
+        <v>1152.8851061323041</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="517"/>
+        <v>1220.1773971587795</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="517"/>
+        <v>1294.9361594378706</v>
+      </c>
+    </row>
+    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <f>B173/1000</f>
+        <v>704.50263866873001</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="517"/>
+        <v>710.79494698487179</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="517"/>
+        <v>735.5802685649146</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="517"/>
+        <v>760.28157209263964</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="517"/>
+        <v>783.59906717733509</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="517"/>
+        <v>821.1291353855861</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="517"/>
+        <v>863.08027123073202</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="517"/>
+        <v>906.94159979671349</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="517"/>
+        <v>950.13201540930345</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="517"/>
+        <v>996.75191389341603</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="517"/>
+        <v>1045.3448250665183</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="517"/>
+        <v>1095.9749123965091</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="517"/>
+        <v>1152.0114463283655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
+++ b/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF0EFE-4BBF-41DA-A7A0-056A8BFC626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAACA66C-82F5-4792-9E59-876AA5BD469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="debt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario balance sheet" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>Forecast</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Scenario_TOT</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -435,6 +432,24 @@
   <si>
     <t>Projection</t>
   </si>
+  <si>
+    <t>Mig_Prod_TOT</t>
+  </si>
+  <si>
+    <t>Mig_Prod</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Defence_interest_NDIS</t>
+  </si>
+  <si>
+    <t>Expenditure_Revenue</t>
+  </si>
+  <si>
+    <t>Defence_NDIS</t>
+  </si>
 </sst>
 </file>
 
@@ -589,7 +604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>debt!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -612,7 +627,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>debt!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -660,7 +675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>debt!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -718,11 +733,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>debt!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario_TOT</c:v>
+                  <c:v>Mig_Prod_TOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,7 +756,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>debt!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -789,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>debt!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3090,18 +3105,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A414E07-4A05-46BC-8FEA-E01B9889AB84}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3109,13 +3128,25 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -3128,8 +3159,20 @@
       <c r="D2">
         <v>33.926494633679567</v>
       </c>
+      <c r="E2">
+        <v>33.926494633679567</v>
+      </c>
+      <c r="F2">
+        <v>33.926494633679567</v>
+      </c>
+      <c r="G2">
+        <v>33.926494633679567</v>
+      </c>
+      <c r="H2">
+        <v>33.926494633679567</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -3142,8 +3185,20 @@
       <c r="D3">
         <v>34.133044110560064</v>
       </c>
+      <c r="E3">
+        <v>33.720654555734036</v>
+      </c>
+      <c r="F3">
+        <v>33.720654555734036</v>
+      </c>
+      <c r="G3">
+        <v>33.720654555734036</v>
+      </c>
+      <c r="H3">
+        <v>36.006011132503787</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -3156,8 +3211,20 @@
       <c r="D4">
         <v>36.558144125327509</v>
       </c>
+      <c r="E4">
+        <v>36.626715151256349</v>
+      </c>
+      <c r="F4">
+        <v>36.626715151256349</v>
+      </c>
+      <c r="G4">
+        <v>36.670072258130844</v>
+      </c>
+      <c r="H4">
+        <v>40.485497871789576</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -3170,8 +3237,20 @@
       <c r="D5">
         <v>38.41706343217173</v>
       </c>
+      <c r="E5">
+        <v>38.785395737375438</v>
+      </c>
+      <c r="F5">
+        <v>38.824541245895922</v>
+      </c>
+      <c r="G5">
+        <v>38.972258037382446</v>
+      </c>
+      <c r="H5">
+        <v>44.52075048590968</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -3184,8 +3263,20 @@
       <c r="D6">
         <v>39.839561030902516</v>
       </c>
+      <c r="E6">
+        <v>40.327187831753662</v>
+      </c>
+      <c r="F6">
+        <v>40.443768494636245</v>
+      </c>
+      <c r="G6">
+        <v>40.803147674983713</v>
+      </c>
+      <c r="H6">
+        <v>48.201365138193623</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -3198,8 +3289,20 @@
       <c r="D7">
         <v>41.022802619903686</v>
       </c>
+      <c r="E7">
+        <v>41.449495008221611</v>
+      </c>
+      <c r="F7">
+        <v>41.683798829341818</v>
+      </c>
+      <c r="G7">
+        <v>42.303976922544486</v>
+      </c>
+      <c r="H7">
+        <v>51.686585820860472</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -3212,8 +3315,20 @@
       <c r="D8">
         <v>42.531658062072921</v>
       </c>
+      <c r="E8">
+        <v>42.702723657326246</v>
+      </c>
+      <c r="F8">
+        <v>43.103158965284145</v>
+      </c>
+      <c r="G8">
+        <v>44.093877933528631</v>
+      </c>
+      <c r="H8">
+        <v>55.794235452843985</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -3226,8 +3341,20 @@
       <c r="D9">
         <v>43.989782389364798</v>
       </c>
+      <c r="E9">
+        <v>43.706846609733418</v>
+      </c>
+      <c r="F9">
+        <v>44.31962850929299</v>
+      </c>
+      <c r="G9">
+        <v>45.726836620542755</v>
+      </c>
+      <c r="H9">
+        <v>59.948156176654059</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -3240,8 +3367,20 @@
       <c r="D10">
         <v>45.392762289900986</v>
       </c>
+      <c r="E10">
+        <v>44.460210576451928</v>
+      </c>
+      <c r="F10">
+        <v>45.33427398700924</v>
+      </c>
+      <c r="G10">
+        <v>47.197615136892992</v>
+      </c>
+      <c r="H10">
+        <v>64.144696613327994</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -3254,8 +3393,20 @@
       <c r="D11">
         <v>46.94755068703364</v>
       </c>
+      <c r="E11">
+        <v>45.155725205802831</v>
+      </c>
+      <c r="F11">
+        <v>46.343630875393899</v>
+      </c>
+      <c r="G11">
+        <v>48.694678814501366</v>
+      </c>
+      <c r="H11">
+        <v>68.598947640510914</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -3268,8 +3419,20 @@
       <c r="D12">
         <v>48.530790685292153</v>
       </c>
+      <c r="E12">
+        <v>45.677399659331087</v>
+      </c>
+      <c r="F12">
+        <v>47.235412069649826</v>
+      </c>
+      <c r="G12">
+        <v>50.099342410473632</v>
+      </c>
+      <c r="H12">
+        <v>73.186917192993164</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -3282,8 +3445,20 @@
       <c r="D13">
         <v>50.17541877276647</v>
       </c>
+      <c r="E13">
+        <v>46.051437763484422</v>
+      </c>
+      <c r="F13">
+        <v>48.039924267387086</v>
+      </c>
+      <c r="G13">
+        <v>51.440237358441905</v>
+      </c>
+      <c r="H13">
+        <v>77.952125657437634</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -3295,6 +3470,18 @@
       </c>
       <c r="D14">
         <v>51.848627255657107</v>
+      </c>
+      <c r="E14">
+        <v>46.235894382455946</v>
+      </c>
+      <c r="F14">
+        <v>48.545983493671415</v>
+      </c>
+      <c r="G14">
+        <v>52.505752447223813</v>
+      </c>
+      <c r="H14">
+        <v>82.684776178919151</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3494,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3321,7 +3508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC5A99E-2648-4E6C-BB1E-9B60D11F81C0}">
   <dimension ref="A1:AX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3335,43 +3522,43 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -3410,125 +3597,125 @@
         <v>1</v>
       </c>
       <c r="AD1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>14</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" t="s">
-        <v>18</v>
-      </c>
       <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>13</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>17</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2673247</v>
@@ -3608,7 +3795,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>27194369</v>
@@ -3688,17 +3875,17 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>650364.63866873004</v>
@@ -3826,7 +4013,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>500598.31799999997</v>
@@ -3958,7 +4145,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>338852.772</v>
@@ -4086,7 +4273,7 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>142944.77799999999</v>
@@ -4214,7 +4401,7 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>12668.458000000001</v>
@@ -4342,7 +4529,7 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>6132.3099999999813</v>
@@ -4475,7 +4662,7 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>149766.32066873007</v>
@@ -4610,7 +4797,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>90328.937000000005</v>
@@ -4741,7 +4928,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>25057.900886881664</v>
@@ -4872,7 +5059,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>7604.8141767083353</v>
@@ -5003,7 +5190,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>9811.6290044200014</v>
@@ -5134,7 +5321,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>3384.97</v>
@@ -5265,7 +5452,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>13578.06960072007</v>
@@ -5401,7 +5588,7 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>54138</v>
@@ -5541,7 +5728,7 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>19698</v>
@@ -5676,7 +5863,7 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>11149.138000000001</v>
@@ -5804,7 +5991,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>8548.8619999999992</v>
@@ -5932,7 +6119,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>12206</v>
@@ -6060,7 +6247,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>6455</v>
@@ -6188,7 +6375,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>15779</v>
@@ -6316,7 +6503,7 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>704502.63866873004</v>
@@ -6448,12 +6635,12 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>254483</v>
@@ -6581,7 +6768,7 @@
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>26571</v>
@@ -6709,7 +6896,7 @@
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>9146</v>
@@ -6837,7 +7024,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>13654</v>
@@ -6965,7 +7152,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>47918</v>
@@ -7093,7 +7280,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>134252</v>
@@ -7221,7 +7408,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>29624.185000000001</v>
@@ -7349,7 +7536,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>18879.436000000002</v>
@@ -7477,7 +7664,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>7600.2569999999996</v>
@@ -7605,7 +7792,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>20997.946314317043</v>
@@ -7733,7 +7920,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>13610.584000000001</v>
@@ -7861,7 +8048,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>41845.656999999999</v>
@@ -7989,7 +8176,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1693.9346856829579</v>
@@ -8117,7 +8304,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>6390</v>
@@ -8245,7 +8432,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>16552</v>
@@ -8373,7 +8560,7 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>153237</v>
@@ -8501,7 +8688,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>59135.85</v>
@@ -8629,7 +8816,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>4512.9480000000003</v>
@@ -8757,7 +8944,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>21476.39</v>
@@ -8885,7 +9072,7 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>11167.71</v>
@@ -9013,7 +9200,7 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>17084.350000000002</v>
@@ -9141,7 +9328,7 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>7226.24</v>
@@ -9269,7 +9456,7 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>2834.81</v>
@@ -9397,7 +9584,7 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>14934.919059707998</v>
@@ -9525,7 +9712,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>2603.98</v>
@@ -9653,7 +9840,7 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>7315.1409999999996</v>
@@ -9781,7 +9968,7 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9909,7 +10096,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>4944.6619402919969</v>
@@ -10037,7 +10224,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>214796</v>
@@ -10165,7 +10352,7 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>174125</v>
@@ -10293,7 +10480,7 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>89803</v>
@@ -10421,7 +10608,7 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>29122.096000000001</v>
@@ -10549,7 +10736,7 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>27898.400000000001</v>
@@ -10677,7 +10864,7 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>13077.6</v>
@@ -10805,7 +10992,7 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>14223.903999999993</v>
@@ -10933,7 +11120,7 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>3771.4569999999999</v>
@@ -11061,7 +11248,7 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>7428.93</v>
@@ -11189,7 +11376,7 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>2160.192</v>
@@ -11317,7 +11504,7 @@
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>3791.4920000000002</v>
@@ -11445,7 +11632,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>23518.928999999996</v>
@@ -11573,7 +11760,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>19420</v>
@@ -11701,7 +11888,7 @@
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>9840</v>
@@ -11829,7 +12016,7 @@
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>9580</v>
@@ -11909,7 +12096,7 @@
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>28260</v>
@@ -12037,7 +12224,7 @@
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>13375</v>
@@ -12165,7 +12352,7 @@
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>2285</v>
@@ -12293,7 +12480,7 @@
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99">
         <v>685856</v>
@@ -12421,7 +12608,7 @@
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>18646.63866873004</v>
@@ -12549,7 +12736,7 @@
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <v>6650</v>
@@ -12677,7 +12864,7 @@
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>14868.842000000001</v>
@@ -12805,7 +12992,7 @@
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105">
         <v>-7275.933</v>
@@ -12933,7 +13120,7 @@
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106">
         <v>-942.90900000000056</v>
@@ -13061,7 +13248,7 @@
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108">
         <v>11996.63866873004</v>
@@ -13189,12 +13376,12 @@
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111">
         <v>657596</v>
@@ -13322,7 +13509,7 @@
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112">
         <v>28050.63866873004</v>
@@ -13450,7 +13637,7 @@
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>53412.800000000003</v>
@@ -13578,7 +13765,7 @@
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -13667,12 +13854,12 @@
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119">
         <v>685584</v>
@@ -13800,7 +13987,7 @@
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>633400</v>
@@ -13928,7 +14115,7 @@
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121">
         <v>10509</v>
@@ -14056,7 +14243,7 @@
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122">
         <v>41675</v>
@@ -14184,7 +14371,7 @@
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B124">
         <v>652218</v>
@@ -14312,7 +14499,7 @@
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125">
         <v>43010</v>
@@ -14440,7 +14627,7 @@
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126">
         <v>190635</v>
@@ -14568,7 +14755,7 @@
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B127">
         <v>232626</v>
@@ -14696,7 +14883,7 @@
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B128">
         <v>22774</v>
@@ -14824,7 +15011,7 @@
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B129">
         <v>152770</v>
@@ -14952,7 +15139,7 @@
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B130">
         <v>10403</v>
@@ -15080,7 +15267,7 @@
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132">
         <v>33366</v>
@@ -15208,7 +15395,7 @@
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134">
         <v>14850</v>
@@ -15336,7 +15523,7 @@
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B136">
         <v>2739</v>
@@ -15464,7 +15651,7 @@
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B138">
         <v>15779</v>
@@ -15592,7 +15779,7 @@
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140">
         <v>1816</v>
@@ -15720,7 +15907,7 @@
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B142">
         <v>13963</v>
@@ -15848,7 +16035,7 @@
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144">
         <v>18779</v>
@@ -15976,7 +16163,7 @@
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B146">
         <v>2739</v>
@@ -16104,7 +16291,7 @@
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B148">
         <v>147682</v>
@@ -16232,7 +16419,7 @@
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150">
         <v>157342</v>
@@ -16360,7 +16547,7 @@
     </row>
     <row r="152" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B152">
         <v>7583</v>
@@ -16488,12 +16675,12 @@
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B155">
         <v>629444</v>
@@ -16621,7 +16808,7 @@
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B156">
         <v>28044</v>
@@ -16749,7 +16936,7 @@
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B157">
         <v>12265</v>
@@ -16877,7 +17064,7 @@
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B159">
         <v>491468</v>
@@ -17005,7 +17192,7 @@
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161">
         <v>906939</v>
@@ -17133,17 +17320,17 @@
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD166">
         <f>AD99/AD161</f>
@@ -17152,48 +17339,48 @@
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
         <v>6</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>7</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>8</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>9</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>10</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>11</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>12</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
         <v>13</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>14</v>
       </c>
-      <c r="K171" t="s">
+      <c r="L171" t="s">
         <v>15</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>16</v>
       </c>
-      <c r="M171" t="s">
+      <c r="N171" t="s">
         <v>17</v>
-      </c>
-      <c r="N171" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172">
         <v>704502.63866873004</v>
@@ -17281,7 +17468,7 @@
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B174">
         <f>B172/1000</f>

--- a/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
+++ b/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAACA66C-82F5-4792-9E59-876AA5BD469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C058D9FC-5858-4D1A-8CE4-BD1BFD35097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
+    <workbookView xWindow="490" yWindow="660" windowWidth="21370" windowHeight="19730" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
   </bookViews>
   <sheets>
     <sheet name="debt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario balance sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Corp TR" sheetId="4" r:id="rId4"/>
+    <sheet name="CoC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
   <si>
     <t>Forecast</t>
   </si>
@@ -449,6 +451,48 @@
   </si>
   <si>
     <t>Defence_NDIS</t>
+  </si>
+  <si>
+    <t>EATR</t>
+  </si>
+  <si>
+    <t>EMTR</t>
+  </si>
+  <si>
+    <t>Manufacturing plants</t>
+  </si>
+  <si>
+    <t>Office buildings</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Power Generation</t>
+  </si>
+  <si>
+    <t>Solar Power</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Scientific R&amp;D</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>CTR (equity)</t>
+  </si>
+  <si>
+    <t>Mig</t>
   </si>
 </sst>
 </file>
@@ -1592,6 +1636,504 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Forward looking tax rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> on investment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corp TR'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EATR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Corp TR'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Manufacturing plants</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office buildings</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Communication</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Power Generation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solar Power</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Scientific R&amp;D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Software</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Corp TR'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A66A-4887-B92B-29AFB9B3AAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corp TR'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Corp TR'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Manufacturing plants</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office buildings</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Communication</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Power Generation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solar Power</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Scientific R&amp;D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Software</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Corp TR'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A66A-4887-B92B-29AFB9B3AAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1124390064"/>
+        <c:axId val="1124388144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1124390064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124388144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1124388144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124390064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1633,6 +2175,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2704,6 +3286,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2768,6 +3853,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0B59F5-F2C6-3627-198C-009893D44697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED799DC1-A026-5B31-5ABB-FBCCA9DFEF0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,22 +4231,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A414E07-4A05-46BC-8FEA-E01B9889AB84}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3134,19 +4261,22 @@
         <v>132</v>
       </c>
       <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -3171,8 +4301,11 @@
       <c r="H2">
         <v>33.926494633679567</v>
       </c>
+      <c r="I2">
+        <v>33.926494633679567</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -3186,7 +4319,7 @@
         <v>34.133044110560064</v>
       </c>
       <c r="E3">
-        <v>33.720654555734036</v>
+        <v>33.766007106012843</v>
       </c>
       <c r="F3">
         <v>33.720654555734036</v>
@@ -3195,10 +4328,13 @@
         <v>33.720654555734036</v>
       </c>
       <c r="H3">
+        <v>33.720654555734036</v>
+      </c>
+      <c r="I3">
         <v>36.006011132503787</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -3212,19 +4348,22 @@
         <v>36.558144125327509</v>
       </c>
       <c r="E4">
-        <v>36.626715151256349</v>
+        <v>35.63104656533929</v>
       </c>
       <c r="F4">
-        <v>36.626715151256349</v>
+        <v>36.364089955574457</v>
       </c>
       <c r="G4">
-        <v>36.670072258130844</v>
+        <v>36.364089955574457</v>
       </c>
       <c r="H4">
-        <v>40.485497871789576</v>
+        <v>36.406255154599016</v>
+      </c>
+      <c r="I4">
+        <v>40.221680065161898</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -3238,19 +4377,22 @@
         <v>38.41706343217173</v>
       </c>
       <c r="E5">
-        <v>38.785395737375438</v>
+        <v>36.756680958209969</v>
       </c>
       <c r="F5">
-        <v>38.824541245895922</v>
+        <v>38.255369719485422</v>
       </c>
       <c r="G5">
-        <v>38.972258037382446</v>
+        <v>38.294515213635144</v>
       </c>
       <c r="H5">
-        <v>44.52075048590968</v>
+        <v>38.438357765065</v>
+      </c>
+      <c r="I5">
+        <v>43.984992091880549</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -3264,19 +4406,22 @@
         <v>39.839561030902516</v>
       </c>
       <c r="E6">
-        <v>40.327187831753662</v>
+        <v>37.286534504193277</v>
       </c>
       <c r="F6">
-        <v>40.443768494636245</v>
+        <v>39.529459622319081</v>
       </c>
       <c r="G6">
-        <v>40.803147674983713</v>
+        <v>39.646040227009969</v>
       </c>
       <c r="H6">
-        <v>48.201365138193623</v>
+        <v>39.995901756430428</v>
+      </c>
+      <c r="I6">
+        <v>47.388853925729379</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -3290,19 +4435,22 @@
         <v>41.022802619903686</v>
       </c>
       <c r="E7">
-        <v>41.449495008221611</v>
+        <v>37.422391372319929</v>
       </c>
       <c r="F7">
-        <v>41.683798829341818</v>
+        <v>40.38515251736866</v>
       </c>
       <c r="G7">
-        <v>42.303976922544486</v>
+        <v>40.619456220320892</v>
       </c>
       <c r="H7">
-        <v>51.686585820860472</v>
+        <v>41.22269542603059</v>
+      </c>
+      <c r="I7">
+        <v>50.594928167923683</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -3316,19 +4464,22 @@
         <v>42.531658062072921</v>
       </c>
       <c r="E8">
-        <v>42.702723657326246</v>
+        <v>37.648171732775879</v>
       </c>
       <c r="F8">
-        <v>43.103158965284145</v>
+        <v>41.355666152123433</v>
       </c>
       <c r="G8">
-        <v>44.093877933528631</v>
+        <v>41.756101317326625</v>
       </c>
       <c r="H8">
-        <v>55.794235452843985</v>
+        <v>42.716981739751617</v>
+      </c>
+      <c r="I8">
+        <v>54.39992597020246</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -3342,19 +4493,22 @@
         <v>43.989782389364798</v>
       </c>
       <c r="E9">
-        <v>43.706846609733418</v>
+        <v>37.651847965650859</v>
       </c>
       <c r="F9">
-        <v>44.31962850929299</v>
+        <v>42.078700956643779</v>
       </c>
       <c r="G9">
-        <v>45.726836620542755</v>
+        <v>42.691482704694771</v>
       </c>
       <c r="H9">
-        <v>59.948156176654059</v>
+        <v>44.053303160619649</v>
+      </c>
+      <c r="I9">
+        <v>58.248174301775357</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -3368,19 +4522,22 @@
         <v>45.392762289900986</v>
       </c>
       <c r="E10">
-        <v>44.460210576451928</v>
+        <v>37.431570608068412</v>
       </c>
       <c r="F10">
-        <v>45.33427398700924</v>
+        <v>42.552759268331684</v>
       </c>
       <c r="G10">
-        <v>47.197615136892992</v>
+        <v>43.426822524271849</v>
       </c>
       <c r="H10">
-        <v>64.144696613327994</v>
+        <v>45.226630102981801</v>
+      </c>
+      <c r="I10">
+        <v>62.136235975196328</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -3394,19 +4551,22 @@
         <v>46.94755068703364</v>
       </c>
       <c r="E11">
-        <v>45.155725205802831</v>
+        <v>37.181648788390866</v>
       </c>
       <c r="F11">
-        <v>46.343630875393899</v>
+        <v>42.970643426922329</v>
       </c>
       <c r="G11">
-        <v>48.694678814501366</v>
+        <v>44.158548940794077</v>
       </c>
       <c r="H11">
-        <v>68.598947640510914</v>
+        <v>46.425370630303284</v>
+      </c>
+      <c r="I11">
+        <v>66.279109365721382</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -3420,19 +4580,22 @@
         <v>48.530790685292153</v>
       </c>
       <c r="E12">
-        <v>45.677399659331087</v>
+        <v>36.783423285931555</v>
       </c>
       <c r="F12">
-        <v>47.235412069649826</v>
+        <v>43.216187890894794</v>
       </c>
       <c r="G12">
-        <v>50.099342410473632</v>
+        <v>44.774200145134579</v>
       </c>
       <c r="H12">
-        <v>73.186917192993164</v>
+        <v>47.530641797496259</v>
+      </c>
+      <c r="I12">
+        <v>70.552602738414095</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -3446,19 +4609,22 @@
         <v>50.17541877276647</v>
       </c>
       <c r="E13">
-        <v>46.051437763484422</v>
+        <v>36.264746316536787</v>
       </c>
       <c r="F13">
-        <v>48.039924267387086</v>
+        <v>43.315953380847667</v>
       </c>
       <c r="G13">
-        <v>51.440237358441905</v>
+        <v>45.304439728581343</v>
       </c>
       <c r="H13">
-        <v>77.952125657437634</v>
+        <v>48.571300871628019</v>
+      </c>
+      <c r="I13">
+        <v>75.000416521823112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -3472,16 +4638,19 @@
         <v>51.848627255657107</v>
       </c>
       <c r="E14">
-        <v>46.235894382455946</v>
+        <v>35.57990876704698</v>
       </c>
       <c r="F14">
-        <v>48.545983493671415</v>
+        <v>43.22695412154836</v>
       </c>
       <c r="G14">
-        <v>52.505752447223813</v>
+        <v>45.537043076568899</v>
       </c>
       <c r="H14">
-        <v>82.684776178919151</v>
+        <v>49.334473741457003</v>
+      </c>
+      <c r="I14">
+        <v>79.411429348261876</v>
       </c>
     </row>
   </sheetData>
@@ -17584,4 +18753,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794BF56-D8D8-4D8D-9E1B-1C35511A6F66}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2">
+        <v>25.1</v>
+      </c>
+      <c r="C2">
+        <v>25.5</v>
+      </c>
+      <c r="D2">
+        <v>26.9</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>23.3</v>
+      </c>
+      <c r="G2">
+        <v>22.2</v>
+      </c>
+      <c r="H2">
+        <v>23.5</v>
+      </c>
+      <c r="I2">
+        <v>25.9</v>
+      </c>
+      <c r="J2">
+        <v>26.9</v>
+      </c>
+      <c r="K2">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3">
+        <v>25.2</v>
+      </c>
+      <c r="C3">
+        <v>26.6</v>
+      </c>
+      <c r="D3">
+        <v>30.4</v>
+      </c>
+      <c r="E3">
+        <v>24.9</v>
+      </c>
+      <c r="F3">
+        <v>19.5</v>
+      </c>
+      <c r="G3">
+        <v>15.4</v>
+      </c>
+      <c r="H3">
+        <v>20.3</v>
+      </c>
+      <c r="I3">
+        <v>27.7</v>
+      </c>
+      <c r="J3">
+        <v>30.3</v>
+      </c>
+      <c r="K3">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEB331-CE8F-414D-A022-BA4428F77774}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
+++ b/e61 Projects/Fiscal sustainability/Election newsletter/Debt scenario2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C058D9FC-5858-4D1A-8CE4-BD1BFD35097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B6A0AE-F3D6-4173-825D-DE0FAF4AB688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="660" windowWidth="21370" windowHeight="19730" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{224D91D9-0A19-4983-A555-2FC6BF7FE260}"/>
   </bookViews>
   <sheets>
     <sheet name="debt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Scenario balance sheet" sheetId="3" r:id="rId3"/>
-    <sheet name="Corp TR" sheetId="4" r:id="rId4"/>
-    <sheet name="CoC" sheetId="5" r:id="rId5"/>
+    <sheet name="PBO_deficit" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Scenario balance sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="Corp TR" sheetId="4" r:id="rId5"/>
+    <sheet name="CoC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
   <si>
     <t>Forecast</t>
   </si>
@@ -493,6 +494,21 @@
   </si>
   <si>
     <t>Mig</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Bracket_Creep</t>
+  </si>
+  <si>
+    <t>Departmental</t>
+  </si>
+  <si>
+    <t>B_BC</t>
+  </si>
+  <si>
+    <t>B_total</t>
   </si>
 </sst>
 </file>
@@ -4233,21 +4249,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A414E07-4A05-46BC-8FEA-E01B9889AB84}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -4305,7 +4321,7 @@
         <v>33.926494633679567</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>36.006011132503787</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -4363,7 +4379,7 @@
         <v>40.221680065161898</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -4392,7 +4408,7 @@
         <v>43.984992091880549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -4421,7 +4437,7 @@
         <v>47.388853925729379</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -4450,7 +4466,7 @@
         <v>50.594928167923683</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -4479,7 +4495,7 @@
         <v>54.39992597020246</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -4508,7 +4524,7 @@
         <v>58.248174301775357</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -4537,7 +4553,7 @@
         <v>62.136235975196328</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>66.279109365721382</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -4595,7 +4611,7 @@
         <v>70.552602738414095</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -4624,7 +4640,7 @@
         <v>75.000416521823112</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -4659,6 +4675,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E87602-6D49-4758-A563-D4544FCCC24F}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.35</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2+C2</f>
+        <v>0.35</v>
+      </c>
+      <c r="G2">
+        <f>F2+D2+E2</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>-1.03</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">B3+C3</f>
+        <v>-1.03</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">F3+D3+E3</f>
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>-1.49</v>
+      </c>
+      <c r="C4">
+        <v>-0.13</v>
+      </c>
+      <c r="D4">
+        <v>-0.17</v>
+      </c>
+      <c r="E4">
+        <v>-0.08</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-1.62</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>-0.88</v>
+      </c>
+      <c r="C5">
+        <v>-0.3</v>
+      </c>
+      <c r="D5">
+        <v>-0.35</v>
+      </c>
+      <c r="E5">
+        <v>-0.17</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-1.18</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-1.6999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>-0.77</v>
+      </c>
+      <c r="C6">
+        <v>-0.49</v>
+      </c>
+      <c r="D6">
+        <v>-0.53</v>
+      </c>
+      <c r="E6">
+        <v>-0.26</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.26</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>-0.97</v>
+      </c>
+      <c r="C7">
+        <v>-0.71</v>
+      </c>
+      <c r="D7">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-1.68</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>-0.72</v>
+      </c>
+      <c r="C8">
+        <v>-0.94</v>
+      </c>
+      <c r="D8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E8">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.66</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C9">
+        <v>-1.17</v>
+      </c>
+      <c r="D9">
+        <v>-0.6</v>
+      </c>
+      <c r="E9">
+        <v>-0.3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-1.7399999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>-0.43</v>
+      </c>
+      <c r="C10">
+        <v>-1.42</v>
+      </c>
+      <c r="D10">
+        <v>-0.62</v>
+      </c>
+      <c r="E10">
+        <v>-0.31</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-1.8499999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>-0.32</v>
+      </c>
+      <c r="C11">
+        <v>-1.67</v>
+      </c>
+      <c r="D11">
+        <v>-0.64</v>
+      </c>
+      <c r="E11">
+        <v>-0.32</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-1.99</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-2.9499999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>-0.09</v>
+      </c>
+      <c r="C12">
+        <v>-1.93</v>
+      </c>
+      <c r="D12">
+        <v>-0.66</v>
+      </c>
+      <c r="E12">
+        <v>-0.33</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-2.02</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-3.0100000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0.13</v>
+      </c>
+      <c r="C13">
+        <v>-2.19</v>
+      </c>
+      <c r="D13">
+        <v>-0.68</v>
+      </c>
+      <c r="E13">
+        <v>-0.34</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-2.06</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-3.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E42AB11-3D15-4FA1-8530-0FF1810AA2BD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4666,14 +5024,14 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC5A99E-2648-4E6C-BB1E-9B60D11F81C0}">
   <dimension ref="A1:AX175"/>
   <sheetViews>
@@ -4684,12 +5042,12 @@
       <selection pane="bottomRight" activeCell="AX20" sqref="AX20:AX31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -4769,7 +5127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +5240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4962,7 +5320,7 @@
         <v>4340126.3433739264</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5042,17 +5400,17 @@
         <v>31092692.94408929</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5180,7 +5538,7 @@
         <v>-140839.17324167001</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5312,7 +5670,7 @@
         <v>0.86881470144822848</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5440,7 +5798,7 @@
         <v>-101823.14560360741</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5568,7 +5926,7 @@
         <v>-14924.884521518776</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5696,7 +6054,7 @@
         <v>-4649.5449869911972</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5824,12 +6182,12 @@
         <v>-965.56914005948056</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AX20">
         <v>0.57490873690878774</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5964,7 +6322,7 @@
         <v>0.73366990898807627</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -6095,7 +6453,7 @@
         <v>0.8480532084511605</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -6226,7 +6584,7 @@
         <v>1.0865841414735447</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6357,7 +6715,7 @@
         <v>1.1490698775062214</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6488,7 +6846,7 @@
         <v>1.4404359078511386</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -6619,7 +6977,7 @@
         <v>1.7122537465569225</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -6750,12 +7108,12 @@
         <v>1.8325776557379094</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AX28">
         <v>1.9579313782304111</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -6890,12 +7248,12 @@
         <v>2.0013377132128802</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AX30">
         <v>2.06760198650682</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -7030,7 +7388,7 @@
         <v>2.1094978551656367</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -7158,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -7286,7 +7644,7 @@
         <v>-1137.5959060254681</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -7414,7 +7772,7 @@
         <v>-66.425890315671495</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -7542,7 +7900,7 @@
         <v>-74.007239662636493</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -7670,7 +8028,7 @@
         <v>-807.51083183134688</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -7802,12 +8160,12 @@
         <v>1.0148079530703895</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -7935,7 +8293,7 @@
         <v>-17249.70354102063</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -8063,7 +8421,7 @@
         <v>-3840.8201517749767</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8191,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -8319,7 +8677,7 @@
         <v>-78.143253577894939</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -8447,7 +8805,7 @@
         <v>-2530.4384720382805</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -8575,7 +8933,7 @@
         <v>-9203.0061523762997</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -8703,7 +9061,7 @@
         <v>-4383.7106490299484</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8831,7 +9189,7 @@
         <v>-224.77533859355754</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -8959,7 +9317,7 @@
         <v>-1264.8075822088958</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -9087,7 +9445,7 @@
         <v>-4358.995728005204</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -9215,7 +9573,7 @@
         <v>1618.7771959236452</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -9343,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -9471,7 +9829,7 @@
         <v>-589.49405046236643</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -9599,7 +9957,7 @@
         <v>-366.82397073168067</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -9727,7 +10085,7 @@
         <v>-1230.4715405214993</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -9855,7 +10213,7 @@
         <v>3258.6126998620457</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9983,7 +10341,7 @@
         <v>-61.521983141283272</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10111,7 +10469,7 @@
         <v>-1.9521839894441655</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10239,7 +10597,7 @@
         <v>-44.265360034070909</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10367,7 +10725,7 @@
         <v>-30.316612989459827</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10495,7 +10853,7 @@
         <v>5960.2999710692311</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10623,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10751,7 +11109,7 @@
         <v>-875.54417355948408</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10879,7 +11237,7 @@
         <v>-62.625008047347364</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -11007,7 +11365,7 @@
         <v>-20.332120789278633</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11135,7 +11493,7 @@
         <v>-132.16738896969764</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11263,7 +11621,7 @@
         <v>-778.44771787450736</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11391,7 +11749,7 @@
         <v>-694.51472181265854</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -11519,7 +11877,7 @@
         <v>-18803.09865964856</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -11647,7 +12005,7 @@
         <v>-15233.570353285759</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -11775,7 +12133,7 @@
         <v>-10781.486400967289</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -11903,7 +12261,7 @@
         <v>-2686.4912321333031</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -12031,7 +12389,7 @@
         <v>-525.75763865571207</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -12159,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -12287,7 +12645,7 @@
         <v>-1239.8350815294616</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -12415,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -12543,7 +12901,7 @@
         <v>-6.4614497662241774</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -12671,7 +13029,7 @@
         <v>-1.0111805041165098</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -12799,7 +13157,7 @@
         <v>-453.82130612191759</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -12927,7 +13285,7 @@
         <v>-3108.234369970538</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -13055,7 +13413,7 @@
         <v>-2674.8549964173108</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -13183,7 +13541,7 @@
         <v>-1463.8947362352556</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -13263,7 +13621,7 @@
         <v>13766.992958598421</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -13391,7 +13749,7 @@
         <v>26941.369616396318</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -13519,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -13647,7 +14005,7 @@
         <v>-392.21401622117264</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -13775,7 +14133,7 @@
         <v>-8919.8888970490079</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -13903,7 +14261,7 @@
         <v>-134004.82421245612</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>92</v>
       </c>
@@ -14031,7 +14389,7 @@
         <v>-248.45834425698922</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -14159,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -14287,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -14415,7 +14773,7 @@
         <v>-248.45834425698922</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -14543,12 +14901,12 @@
         <v>-133756.36586819912</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -14676,7 +15034,7 @@
         <v>-35861.2585134455</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -14804,7 +15162,7 @@
         <v>-106748.57036148715</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>100</v>
       </c>
@@ -14932,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>101</v>
       </c>
@@ -15021,12 +15379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -15154,7 +15512,7 @@
         <v>-140655.10969223618</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -15282,7 +15640,7 @@
         <v>-136995.98785871291</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -15410,7 +15768,7 @@
         <v>-54.85209322015362</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -15538,7 +15896,7 @@
         <v>-3604.2697403031052</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -15666,7 +16024,7 @@
         <v>-8005.9360682687256</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -15794,7 +16152,7 @@
         <v>-3794.4683090735198</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>109</v>
       </c>
@@ -15922,7 +16280,7 @@
         <v>-12277.619660729833</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>110</v>
       </c>
@@ -16050,7 +16408,7 @@
         <v>-21677.712232512247</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -16178,7 +16536,7 @@
         <v>27359.438808426072</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -16306,7 +16664,7 @@
         <v>3268.7403153780615</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>113</v>
       </c>
@@ -16434,7 +16792,7 @@
         <v>-884.31498975726572</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -16562,7 +16920,7 @@
         <v>-132649.17362396745</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>115</v>
       </c>
@@ -16690,7 +17048,7 @@
         <v>-293.19410632128711</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -16818,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>117</v>
       </c>
@@ -16946,7 +17304,7 @@
         <v>-132355.97951764616</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -17074,7 +17432,7 @@
         <v>-395.48027186651052</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>119</v>
       </c>
@@ -17202,7 +17560,7 @@
         <v>-131960.49924577962</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -17330,7 +17688,7 @@
         <v>-130.19234090549071</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>116</v>
       </c>
@@ -17458,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -17586,7 +17944,7 @@
         <v>8880.2688091545133</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -17714,7 +18072,7 @@
         <v>140281.11867577594</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -17842,12 +18200,12 @@
         <v>-429.45703825267265</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>124</v>
       </c>
@@ -17975,7 +18333,7 @@
         <v>-35365.374876694754</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>125</v>
       </c>
@@ -18103,7 +18461,7 @@
         <v>-104941.68861599994</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>126</v>
       </c>
@@ -18231,7 +18589,7 @@
         <v>27414.290901646236</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>127</v>
       </c>
@@ -18359,7 +18717,7 @@
         <v>725908.4208644816</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -18487,17 +18845,17 @@
         <v>681562.67225962668</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -18506,7 +18864,7 @@
         <v>-0.32538470689547733</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>5</v>
       </c>
@@ -18547,7 +18905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>130</v>
       </c>
@@ -18591,7 +18949,7 @@
         <v>1294936.1594378706</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -18635,7 +18993,7 @@
         <v>1152011.4463283655</v>
       </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>130</v>
       </c>
@@ -18692,7 +19050,7 @@
         <v>1294.9361594378706</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -18747,127 +19105,6 @@
       <c r="N175">
         <f t="shared" si="517"/>
         <v>1152.0114463283655</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794BF56-D8D8-4D8D-9E1B-1C35511A6F66}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2">
-        <v>25.1</v>
-      </c>
-      <c r="C2">
-        <v>25.5</v>
-      </c>
-      <c r="D2">
-        <v>26.9</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>23.3</v>
-      </c>
-      <c r="G2">
-        <v>22.2</v>
-      </c>
-      <c r="H2">
-        <v>23.5</v>
-      </c>
-      <c r="I2">
-        <v>25.9</v>
-      </c>
-      <c r="J2">
-        <v>26.9</v>
-      </c>
-      <c r="K2">
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3">
-        <v>25.2</v>
-      </c>
-      <c r="C3">
-        <v>26.6</v>
-      </c>
-      <c r="D3">
-        <v>30.4</v>
-      </c>
-      <c r="E3">
-        <v>24.9</v>
-      </c>
-      <c r="F3">
-        <v>19.5</v>
-      </c>
-      <c r="G3">
-        <v>15.4</v>
-      </c>
-      <c r="H3">
-        <v>20.3</v>
-      </c>
-      <c r="I3">
-        <v>27.7</v>
-      </c>
-      <c r="J3">
-        <v>30.3</v>
-      </c>
-      <c r="K3">
-        <v>33.799999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -18877,6 +19114,127 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794BF56-D8D8-4D8D-9E1B-1C35511A6F66}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2">
+        <v>25.1</v>
+      </c>
+      <c r="C2">
+        <v>25.5</v>
+      </c>
+      <c r="D2">
+        <v>26.9</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>23.3</v>
+      </c>
+      <c r="G2">
+        <v>22.2</v>
+      </c>
+      <c r="H2">
+        <v>23.5</v>
+      </c>
+      <c r="I2">
+        <v>25.9</v>
+      </c>
+      <c r="J2">
+        <v>26.9</v>
+      </c>
+      <c r="K2">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3">
+        <v>25.2</v>
+      </c>
+      <c r="C3">
+        <v>26.6</v>
+      </c>
+      <c r="D3">
+        <v>30.4</v>
+      </c>
+      <c r="E3">
+        <v>24.9</v>
+      </c>
+      <c r="F3">
+        <v>19.5</v>
+      </c>
+      <c r="G3">
+        <v>15.4</v>
+      </c>
+      <c r="H3">
+        <v>20.3</v>
+      </c>
+      <c r="I3">
+        <v>27.7</v>
+      </c>
+      <c r="J3">
+        <v>30.3</v>
+      </c>
+      <c r="K3">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEB331-CE8F-414D-A022-BA4428F77774}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18884,7 +19242,7 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
